--- a/Code/Results/Cases/Case_3_222/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_222/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002861120306468</v>
+        <v>1.027283669358748</v>
       </c>
       <c r="D2">
-        <v>1.021769560591976</v>
+        <v>1.036106916628989</v>
       </c>
       <c r="E2">
-        <v>1.008949219406023</v>
+        <v>1.027402826265482</v>
       </c>
       <c r="F2">
-        <v>1.022418311637269</v>
+        <v>1.044741476468274</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042654086897519</v>
+        <v>1.034647283600106</v>
       </c>
       <c r="J2">
-        <v>1.024956591226626</v>
+        <v>1.032442402237036</v>
       </c>
       <c r="K2">
-        <v>1.03293371834259</v>
+        <v>1.038901605891513</v>
       </c>
       <c r="L2">
-        <v>1.020285269584866</v>
+        <v>1.030222657885666</v>
       </c>
       <c r="M2">
-        <v>1.033573914779082</v>
+        <v>1.047511673474632</v>
       </c>
       <c r="N2">
-        <v>1.012260925831798</v>
+        <v>1.014840840667054</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006405083467019</v>
+        <v>1.028041358513458</v>
       </c>
       <c r="D3">
-        <v>1.024436610439813</v>
+        <v>1.036706316148222</v>
       </c>
       <c r="E3">
-        <v>1.011710522033963</v>
+        <v>1.028041325041443</v>
       </c>
       <c r="F3">
-        <v>1.025987017447626</v>
+        <v>1.04557350670045</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043545009218676</v>
+        <v>1.034795896174332</v>
       </c>
       <c r="J3">
-        <v>1.026722649424317</v>
+        <v>1.032841196576826</v>
       </c>
       <c r="K3">
-        <v>1.034766083607461</v>
+        <v>1.039311096567165</v>
       </c>
       <c r="L3">
-        <v>1.022195725548403</v>
+        <v>1.030669332004703</v>
       </c>
       <c r="M3">
-        <v>1.03629784575786</v>
+        <v>1.048154949072271</v>
       </c>
       <c r="N3">
-        <v>1.012853113872002</v>
+        <v>1.014973815848604</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008659013721514</v>
+        <v>1.028532359969291</v>
       </c>
       <c r="D4">
-        <v>1.026135929408443</v>
+        <v>1.037094819278008</v>
       </c>
       <c r="E4">
-        <v>1.013472439731757</v>
+        <v>1.028455492218789</v>
       </c>
       <c r="F4">
-        <v>1.028262154313347</v>
+        <v>1.046113102094098</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04410377367492</v>
+        <v>1.03489121677391</v>
       </c>
       <c r="J4">
-        <v>1.027843784982998</v>
+        <v>1.03309928336749</v>
       </c>
       <c r="K4">
-        <v>1.03592882704711</v>
+        <v>1.039576018439458</v>
       </c>
       <c r="L4">
-        <v>1.023410938735323</v>
+        <v>1.030958687131356</v>
       </c>
       <c r="M4">
-        <v>1.03803103846549</v>
+        <v>1.048571757974476</v>
       </c>
       <c r="N4">
-        <v>1.013228957277227</v>
+        <v>1.015059845897843</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009597433315467</v>
+        <v>1.028738948837004</v>
       </c>
       <c r="D5">
-        <v>1.026844146764106</v>
+        <v>1.037258300040131</v>
       </c>
       <c r="E5">
-        <v>1.014207360670793</v>
+        <v>1.028629849290427</v>
       </c>
       <c r="F5">
-        <v>1.02921069745963</v>
+        <v>1.046340236962582</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044334501355586</v>
+        <v>1.034931087309368</v>
       </c>
       <c r="J5">
-        <v>1.028310049736134</v>
+        <v>1.033207791358892</v>
       </c>
       <c r="K5">
-        <v>1.0364122749962</v>
+        <v>1.039687379187725</v>
       </c>
       <c r="L5">
-        <v>1.02391690863988</v>
+        <v>1.0310804088764</v>
       </c>
       <c r="M5">
-        <v>1.038752815618811</v>
+        <v>1.048747118215047</v>
       </c>
       <c r="N5">
-        <v>1.013385241727754</v>
+        <v>1.01509600915785</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009754470036788</v>
+        <v>1.028773646038603</v>
       </c>
       <c r="D6">
-        <v>1.026962701752808</v>
+        <v>1.037285758156379</v>
       </c>
       <c r="E6">
-        <v>1.014330422049574</v>
+        <v>1.028659138695606</v>
       </c>
       <c r="F6">
-        <v>1.029369503820498</v>
+        <v>1.046378390787668</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044372998475137</v>
+        <v>1.034937769866322</v>
       </c>
       <c r="J6">
-        <v>1.028388044164477</v>
+        <v>1.033226010776817</v>
       </c>
       <c r="K6">
-        <v>1.03649313650483</v>
+        <v>1.039706076379114</v>
       </c>
       <c r="L6">
-        <v>1.024001578854685</v>
+        <v>1.031100850957039</v>
       </c>
       <c r="M6">
-        <v>1.038873608040213</v>
+        <v>1.048776569761754</v>
       </c>
       <c r="N6">
-        <v>1.013411382770257</v>
+        <v>1.01510208089335</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008671588472079</v>
+        <v>1.028535119746992</v>
       </c>
       <c r="D7">
-        <v>1.0261454167119</v>
+        <v>1.037097003113095</v>
       </c>
       <c r="E7">
-        <v>1.013482282326973</v>
+        <v>1.028457821041305</v>
       </c>
       <c r="F7">
-        <v>1.02827485963344</v>
+        <v>1.046116135948648</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044106872996086</v>
+        <v>1.034891750321569</v>
       </c>
       <c r="J7">
-        <v>1.027850034969527</v>
+        <v>1.033100733225603</v>
       </c>
       <c r="K7">
-        <v>1.035935307847115</v>
+        <v>1.039577506497734</v>
       </c>
       <c r="L7">
-        <v>1.023417718653825</v>
+        <v>1.030960313283139</v>
       </c>
       <c r="M7">
-        <v>1.038040709602951</v>
+        <v>1.048574100623273</v>
       </c>
       <c r="N7">
-        <v>1.013231052267693</v>
+        <v>1.015060329128512</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004067108714769</v>
+        <v>1.027539582492267</v>
       </c>
       <c r="D8">
-        <v>1.022676471585965</v>
+        <v>1.03630935042813</v>
       </c>
       <c r="E8">
-        <v>1.009887650871361</v>
+        <v>1.027618398398981</v>
       </c>
       <c r="F8">
-        <v>1.023631563844579</v>
+        <v>1.045022411838935</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042958888155035</v>
+        <v>1.034697681740138</v>
       </c>
       <c r="J8">
-        <v>1.025557987029558</v>
+        <v>1.03257716753924</v>
       </c>
       <c r="K8">
-        <v>1.033557792624324</v>
+        <v>1.039040003860586</v>
       </c>
       <c r="L8">
-        <v>1.020935332855342</v>
+        <v>1.030373544889444</v>
       </c>
       <c r="M8">
-        <v>1.034500669220162</v>
+        <v>1.047728953041839</v>
       </c>
       <c r="N8">
-        <v>1.012462601811895</v>
+        <v>1.014885782822518</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9956404261421646</v>
+        <v>1.025790963613829</v>
       </c>
       <c r="D9">
-        <v>1.016354059309015</v>
+        <v>1.034926481627421</v>
       </c>
       <c r="E9">
-        <v>1.003356039518739</v>
+        <v>1.026147095949343</v>
       </c>
       <c r="F9">
-        <v>1.015177987714524</v>
+        <v>1.043104541981318</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040797172146405</v>
+        <v>1.034349294966848</v>
       </c>
       <c r="J9">
-        <v>1.021348077067545</v>
+        <v>1.031654943898597</v>
       </c>
       <c r="K9">
-        <v>1.029187260860069</v>
+        <v>1.038092565341473</v>
       </c>
       <c r="L9">
-        <v>1.016394900981778</v>
+        <v>1.029342153761343</v>
       </c>
       <c r="M9">
-        <v>1.028029520478562</v>
+        <v>1.046244116683139</v>
       </c>
       <c r="N9">
-        <v>1.011050502352655</v>
+        <v>1.014578125242933</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9897940566086454</v>
+        <v>1.024629128480081</v>
       </c>
       <c r="D10">
-        <v>1.011987650290797</v>
+        <v>1.034008097817604</v>
       </c>
       <c r="E10">
-        <v>0.998858337829617</v>
+        <v>1.025171636296171</v>
       </c>
       <c r="F10">
-        <v>1.009344142010134</v>
+        <v>1.041832421477441</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039258155643149</v>
+        <v>1.034112770061868</v>
       </c>
       <c r="J10">
-        <v>1.01841853493633</v>
+        <v>1.031040452970536</v>
       </c>
       <c r="K10">
-        <v>1.026143785453723</v>
+        <v>1.03746082835244</v>
       </c>
       <c r="L10">
-        <v>1.013248235979822</v>
+        <v>1.028656374763775</v>
       </c>
       <c r="M10">
-        <v>1.023546710016255</v>
+        <v>1.045257310110844</v>
       </c>
       <c r="N10">
-        <v>1.010067531706921</v>
+        <v>1.014372991508891</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9872040034885921</v>
+        <v>1.024126993078187</v>
       </c>
       <c r="D11">
-        <v>1.010058549950999</v>
+        <v>1.033611289080211</v>
       </c>
       <c r="E11">
-        <v>0.9968743083811653</v>
+        <v>1.02475055963014</v>
       </c>
       <c r="F11">
-        <v>1.006767353215005</v>
+        <v>1.041283139230409</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038567453851694</v>
+        <v>1.034009349564539</v>
       </c>
       <c r="J11">
-        <v>1.017118972850781</v>
+        <v>1.030774465358734</v>
       </c>
       <c r="K11">
-        <v>1.024793237416438</v>
+        <v>1.037187270632216</v>
       </c>
       <c r="L11">
-        <v>1.011855412384593</v>
+        <v>1.028359873932318</v>
       </c>
       <c r="M11">
-        <v>1.021562765738196</v>
+        <v>1.044830767174712</v>
       </c>
       <c r="N11">
-        <v>1.009631423443051</v>
+        <v>1.0142841655249</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9862327600922584</v>
+        <v>1.023940621874928</v>
       </c>
       <c r="D12">
-        <v>1.009336002170781</v>
+        <v>1.033464027488403</v>
       </c>
       <c r="E12">
-        <v>0.9961316448537749</v>
+        <v>1.024594350957842</v>
       </c>
       <c r="F12">
-        <v>1.005802271823377</v>
+        <v>1.04107934714268</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038307148575915</v>
+        <v>1.0339707845571</v>
       </c>
       <c r="J12">
-        <v>1.016631422919974</v>
+        <v>1.030675680745035</v>
       </c>
       <c r="K12">
-        <v>1.024286498530684</v>
+        <v>1.037085658837726</v>
       </c>
       <c r="L12">
-        <v>1.011333333604885</v>
+        <v>1.028249808837239</v>
       </c>
       <c r="M12">
-        <v>1.020819147369924</v>
+        <v>1.044672444862262</v>
       </c>
       <c r="N12">
-        <v>1.009467804390677</v>
+        <v>1.014251171826388</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9864415170781811</v>
+        <v>1.023980592571516</v>
       </c>
       <c r="D13">
-        <v>1.009491266059284</v>
+        <v>1.033495609646669</v>
       </c>
       <c r="E13">
-        <v>0.996291210655034</v>
+        <v>1.024627849257493</v>
       </c>
       <c r="F13">
-        <v>1.006009650191323</v>
+        <v>1.041123050530506</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03836315616286</v>
+        <v>1.033979063659102</v>
       </c>
       <c r="J13">
-        <v>1.016736225638605</v>
+        <v>1.030696869678202</v>
       </c>
       <c r="K13">
-        <v>1.024395428718147</v>
+        <v>1.037107454901984</v>
       </c>
       <c r="L13">
-        <v>1.011445537791542</v>
+        <v>1.028273415049086</v>
       </c>
       <c r="M13">
-        <v>1.02097896313917</v>
+        <v>1.044706400313258</v>
       </c>
       <c r="N13">
-        <v>1.009502975868397</v>
+        <v>1.014258249068656</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9871239098399364</v>
+        <v>1.024111584622398</v>
       </c>
       <c r="D14">
-        <v>1.00999894752735</v>
+        <v>1.033599113710366</v>
       </c>
       <c r="E14">
-        <v>0.9968130373288138</v>
+        <v>1.024737643322493</v>
       </c>
       <c r="F14">
-        <v>1.00668774338152</v>
+        <v>1.041266288889548</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038546013973651</v>
+        <v>1.034006164825173</v>
       </c>
       <c r="J14">
-        <v>1.017078771460186</v>
+        <v>1.030766299477346</v>
       </c>
       <c r="K14">
-        <v>1.024751454984336</v>
+        <v>1.037178871366908</v>
       </c>
       <c r="L14">
-        <v>1.011812354534406</v>
+        <v>1.028350774510812</v>
       </c>
       <c r="M14">
-        <v>1.02150143606548</v>
+        <v>1.044817677851484</v>
       </c>
       <c r="N14">
-        <v>1.009617932202203</v>
+        <v>1.014281438248053</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.98754312583854</v>
+        <v>1.024192312321167</v>
       </c>
       <c r="D15">
-        <v>1.010310945730241</v>
+        <v>1.033662903377845</v>
       </c>
       <c r="E15">
-        <v>0.9971337889002903</v>
+        <v>1.024805317361682</v>
       </c>
       <c r="F15">
-        <v>1.007104475698921</v>
+        <v>1.041354574083279</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038658179073823</v>
+        <v>1.034022842890302</v>
       </c>
       <c r="J15">
-        <v>1.017289179376641</v>
+        <v>1.030809079499978</v>
       </c>
       <c r="K15">
-        <v>1.024970135384717</v>
+        <v>1.037222873414361</v>
       </c>
       <c r="L15">
-        <v>1.012037731472998</v>
+        <v>1.028398447352421</v>
       </c>
       <c r="M15">
-        <v>1.021822454151418</v>
+        <v>1.044886254875215</v>
       </c>
       <c r="N15">
-        <v>1.00968854303164</v>
+        <v>1.014295725911407</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9899646839689665</v>
+        <v>1.024662473671987</v>
       </c>
       <c r="D16">
-        <v>1.012114850206876</v>
+        <v>1.034034450945071</v>
       </c>
       <c r="E16">
-        <v>0.998989223580574</v>
+        <v>1.025199609413967</v>
       </c>
       <c r="F16">
-        <v>1.009514059042125</v>
+        <v>1.041868908473287</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039303475124888</v>
+        <v>1.03411961265849</v>
       </c>
       <c r="J16">
-        <v>1.018504114103244</v>
+        <v>1.031058107725541</v>
       </c>
       <c r="K16">
-        <v>1.026232713387316</v>
+        <v>1.037478983359486</v>
       </c>
       <c r="L16">
-        <v>1.013340020434404</v>
+        <v>1.028676062073017</v>
       </c>
       <c r="M16">
-        <v>1.023677453493791</v>
+        <v>1.045285634343871</v>
       </c>
       <c r="N16">
-        <v>1.010096249423648</v>
+        <v>1.014378886602083</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9914677241425132</v>
+        <v>1.024957648372688</v>
       </c>
       <c r="D17">
-        <v>1.013235953118127</v>
+        <v>1.034267743918025</v>
       </c>
       <c r="E17">
-        <v>1.000143163527826</v>
+        <v>1.025447288927368</v>
       </c>
       <c r="F17">
-        <v>1.011011726093239</v>
+        <v>1.042191954591433</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039701679969103</v>
+        <v>1.034180045605437</v>
       </c>
       <c r="J17">
-        <v>1.01925778031193</v>
+        <v>1.031214341875931</v>
       </c>
       <c r="K17">
-        <v>1.027015821039639</v>
+        <v>1.037639632317697</v>
       </c>
       <c r="L17">
-        <v>1.014148683034472</v>
+        <v>1.028850322925485</v>
       </c>
       <c r="M17">
-        <v>1.024829395886402</v>
+        <v>1.04553635690729</v>
       </c>
       <c r="N17">
-        <v>1.010349150219282</v>
+        <v>1.014431050988027</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9923388013877256</v>
+        <v>1.025129910008451</v>
       </c>
       <c r="D18">
-        <v>1.01388618244249</v>
+        <v>1.034403902365097</v>
       </c>
       <c r="E18">
-        <v>1.000812731621325</v>
+        <v>1.025591881856504</v>
       </c>
       <c r="F18">
-        <v>1.011880421817011</v>
+        <v>1.042380531743955</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039931608612256</v>
+        <v>1.034215198232139</v>
       </c>
       <c r="J18">
-        <v>1.01969439700266</v>
+        <v>1.031305479303431</v>
       </c>
       <c r="K18">
-        <v>1.027469451179552</v>
+        <v>1.037733334937141</v>
       </c>
       <c r="L18">
-        <v>1.01461745099019</v>
+        <v>1.028952009263911</v>
       </c>
       <c r="M18">
-        <v>1.025497187079678</v>
+        <v>1.045682671451073</v>
       </c>
       <c r="N18">
-        <v>1.010495656120329</v>
+        <v>1.01446147739296</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9926348742954472</v>
+        <v>1.02518866218789</v>
       </c>
       <c r="D19">
-        <v>1.014107274345711</v>
+        <v>1.034450342826606</v>
       </c>
       <c r="E19">
-        <v>1.001040449046295</v>
+        <v>1.02564120555974</v>
       </c>
       <c r="F19">
-        <v>1.01217580866463</v>
+        <v>1.042444857022069</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040009614730717</v>
+        <v>1.034227167912371</v>
       </c>
       <c r="J19">
-        <v>1.019842770869456</v>
+        <v>1.031336556243907</v>
       </c>
       <c r="K19">
-        <v>1.027623599251062</v>
+        <v>1.037765284861501</v>
       </c>
       <c r="L19">
-        <v>1.014776799978086</v>
+        <v>1.028986688913484</v>
       </c>
       <c r="M19">
-        <v>1.025724195758866</v>
+        <v>1.045732573136657</v>
       </c>
       <c r="N19">
-        <v>1.010545441695237</v>
+        <v>1.014471851962236</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.991307046265175</v>
+        <v>1.024925969470487</v>
       </c>
       <c r="D20">
-        <v>1.013116052739292</v>
+        <v>1.03424270523139</v>
       </c>
       <c r="E20">
-        <v>1.000019720870114</v>
+        <v>1.025420702247144</v>
       </c>
       <c r="F20">
-        <v>1.010851546464503</v>
+        <v>1.042157279287523</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039659198825205</v>
+        <v>1.03417357173837</v>
       </c>
       <c r="J20">
-        <v>1.019177228913664</v>
+        <v>1.03119757852148</v>
       </c>
       <c r="K20">
-        <v>1.026932127341296</v>
+        <v>1.037622396318574</v>
       </c>
       <c r="L20">
-        <v>1.014062223519081</v>
+        <v>1.028831621933725</v>
       </c>
       <c r="M20">
-        <v>1.024706231039299</v>
+        <v>1.045509449255365</v>
       </c>
       <c r="N20">
-        <v>1.010322120890832</v>
+        <v>1.014425454260158</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9869232188780905</v>
+        <v>1.024073006730556</v>
       </c>
       <c r="D21">
-        <v>1.009849615295297</v>
+        <v>1.033568630715399</v>
       </c>
       <c r="E21">
-        <v>0.9966595317638326</v>
+        <v>1.024705306225918</v>
       </c>
       <c r="F21">
-        <v>1.006488283965462</v>
+        <v>1.041224102235546</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038492271174555</v>
+        <v>1.033998188342713</v>
       </c>
       <c r="J21">
-        <v>1.016978035122421</v>
+        <v>1.030745853706259</v>
       </c>
       <c r="K21">
-        <v>1.024646755925247</v>
+        <v>1.037157840994076</v>
       </c>
       <c r="L21">
-        <v>1.011704467910912</v>
+        <v>1.028327992173998</v>
       </c>
       <c r="M21">
-        <v>1.021347767681604</v>
+        <v>1.044784906207556</v>
       </c>
       <c r="N21">
-        <v>1.009584125854236</v>
+        <v>1.014274609602533</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.984113598856648</v>
+        <v>1.02353755072862</v>
       </c>
       <c r="D22">
-        <v>1.007761078520382</v>
+        <v>1.033145571312085</v>
       </c>
       <c r="E22">
-        <v>0.9945137115988215</v>
+        <v>1.024256654651356</v>
       </c>
       <c r="F22">
-        <v>1.003698770675543</v>
+        <v>1.040638742151998</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03773684130555</v>
+        <v>1.033887050189997</v>
       </c>
       <c r="J22">
-        <v>1.015567251992608</v>
+        <v>1.0304619240056</v>
       </c>
       <c r="K22">
-        <v>1.023180339025309</v>
+        <v>1.036865755733148</v>
       </c>
       <c r="L22">
-        <v>1.010194642070956</v>
+        <v>1.028011737309557</v>
       </c>
       <c r="M22">
-        <v>1.019197308587487</v>
+        <v>1.044330021956434</v>
       </c>
       <c r="N22">
-        <v>1.009110664556836</v>
+        <v>1.014179769132158</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9856082220632291</v>
+        <v>1.023821326224974</v>
       </c>
       <c r="D23">
-        <v>1.008871627024394</v>
+        <v>1.03336977058669</v>
       </c>
       <c r="E23">
-        <v>0.995654470004236</v>
+        <v>1.024494383994376</v>
       </c>
       <c r="F23">
-        <v>1.00518203456323</v>
+        <v>1.040948922426933</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038139403216309</v>
+        <v>1.03394604861751</v>
       </c>
       <c r="J23">
-        <v>1.016317853839125</v>
+        <v>1.0306124317547</v>
       </c>
       <c r="K23">
-        <v>1.023960571644914</v>
+        <v>1.037020595259867</v>
       </c>
       <c r="L23">
-        <v>1.010997686776331</v>
+        <v>1.028179351847964</v>
       </c>
       <c r="M23">
-        <v>1.020341079441915</v>
+        <v>1.044571101054761</v>
       </c>
       <c r="N23">
-        <v>1.009362570731722</v>
+        <v>1.014230045550694</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9913796670235202</v>
+        <v>1.024940283521178</v>
       </c>
       <c r="D24">
-        <v>1.013170241950351</v>
+        <v>1.034254018881148</v>
       </c>
       <c r="E24">
-        <v>1.000075510111279</v>
+        <v>1.025432715235546</v>
       </c>
       <c r="F24">
-        <v>1.010923939764568</v>
+        <v>1.042172947102175</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039678401442208</v>
+        <v>1.034176497299705</v>
       </c>
       <c r="J24">
-        <v>1.019213635832913</v>
+        <v>1.031205153133115</v>
       </c>
       <c r="K24">
-        <v>1.026969954622674</v>
+        <v>1.037630184528564</v>
       </c>
       <c r="L24">
-        <v>1.014101299837201</v>
+        <v>1.02884007197448</v>
       </c>
       <c r="M24">
-        <v>1.024761896637979</v>
+        <v>1.045521607441861</v>
       </c>
       <c r="N24">
-        <v>1.010334337388493</v>
+        <v>1.014427983181253</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9978578287554252</v>
+        <v>1.026242342663042</v>
       </c>
       <c r="D25">
-        <v>1.018014452462647</v>
+        <v>1.035283372879811</v>
       </c>
       <c r="E25">
-        <v>1.005069069291082</v>
+        <v>1.026526518286922</v>
       </c>
       <c r="F25">
-        <v>1.017397172618138</v>
+        <v>1.043599228421567</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041372931253426</v>
+        <v>1.03444011668045</v>
       </c>
       <c r="J25">
-        <v>1.022457501199482</v>
+        <v>1.031893309325373</v>
       </c>
       <c r="K25">
-        <v>1.030339408605336</v>
+        <v>1.038337526661241</v>
       </c>
       <c r="L25">
-        <v>1.017589200858462</v>
+        <v>1.029608479556313</v>
       </c>
       <c r="M25">
-        <v>1.02973129201405</v>
+        <v>1.046627446998191</v>
       </c>
       <c r="N25">
-        <v>1.011422693920931</v>
+        <v>1.014657669223838</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_222/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_222/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027283669358748</v>
+        <v>1.002861120306468</v>
       </c>
       <c r="D2">
-        <v>1.036106916628989</v>
+        <v>1.021769560591976</v>
       </c>
       <c r="E2">
-        <v>1.027402826265482</v>
+        <v>1.008949219406023</v>
       </c>
       <c r="F2">
-        <v>1.044741476468274</v>
+        <v>1.022418311637269</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034647283600106</v>
+        <v>1.042654086897519</v>
       </c>
       <c r="J2">
-        <v>1.032442402237036</v>
+        <v>1.024956591226626</v>
       </c>
       <c r="K2">
-        <v>1.038901605891513</v>
+        <v>1.03293371834259</v>
       </c>
       <c r="L2">
-        <v>1.030222657885666</v>
+        <v>1.020285269584865</v>
       </c>
       <c r="M2">
-        <v>1.047511673474632</v>
+        <v>1.033573914779082</v>
       </c>
       <c r="N2">
-        <v>1.014840840667054</v>
+        <v>1.012260925831798</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028041358513458</v>
+        <v>1.00640508346702</v>
       </c>
       <c r="D3">
-        <v>1.036706316148222</v>
+        <v>1.024436610439813</v>
       </c>
       <c r="E3">
-        <v>1.028041325041443</v>
+        <v>1.011710522033963</v>
       </c>
       <c r="F3">
-        <v>1.04557350670045</v>
+        <v>1.025987017447627</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034795896174332</v>
+        <v>1.043545009218676</v>
       </c>
       <c r="J3">
-        <v>1.032841196576826</v>
+        <v>1.026722649424317</v>
       </c>
       <c r="K3">
-        <v>1.039311096567165</v>
+        <v>1.034766083607461</v>
       </c>
       <c r="L3">
-        <v>1.030669332004703</v>
+        <v>1.022195725548404</v>
       </c>
       <c r="M3">
-        <v>1.048154949072271</v>
+        <v>1.03629784575786</v>
       </c>
       <c r="N3">
-        <v>1.014973815848604</v>
+        <v>1.012853113872002</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028532359969291</v>
+        <v>1.008659013721513</v>
       </c>
       <c r="D4">
-        <v>1.037094819278008</v>
+        <v>1.026135929408443</v>
       </c>
       <c r="E4">
-        <v>1.028455492218789</v>
+        <v>1.013472439731756</v>
       </c>
       <c r="F4">
-        <v>1.046113102094098</v>
+        <v>1.028262154313347</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03489121677391</v>
+        <v>1.04410377367492</v>
       </c>
       <c r="J4">
-        <v>1.03309928336749</v>
+        <v>1.027843784982998</v>
       </c>
       <c r="K4">
-        <v>1.039576018439458</v>
+        <v>1.03592882704711</v>
       </c>
       <c r="L4">
-        <v>1.030958687131356</v>
+        <v>1.023410938735322</v>
       </c>
       <c r="M4">
-        <v>1.048571757974476</v>
+        <v>1.03803103846549</v>
       </c>
       <c r="N4">
-        <v>1.015059845897843</v>
+        <v>1.013228957277227</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028738948837004</v>
+        <v>1.009597433315467</v>
       </c>
       <c r="D5">
-        <v>1.037258300040131</v>
+        <v>1.026844146764106</v>
       </c>
       <c r="E5">
-        <v>1.028629849290427</v>
+        <v>1.014207360670793</v>
       </c>
       <c r="F5">
-        <v>1.046340236962582</v>
+        <v>1.02921069745963</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034931087309368</v>
+        <v>1.044334501355586</v>
       </c>
       <c r="J5">
-        <v>1.033207791358892</v>
+        <v>1.028310049736134</v>
       </c>
       <c r="K5">
-        <v>1.039687379187725</v>
+        <v>1.0364122749962</v>
       </c>
       <c r="L5">
-        <v>1.0310804088764</v>
+        <v>1.02391690863988</v>
       </c>
       <c r="M5">
-        <v>1.048747118215047</v>
+        <v>1.038752815618811</v>
       </c>
       <c r="N5">
-        <v>1.01509600915785</v>
+        <v>1.013385241727754</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028773646038603</v>
+        <v>1.009754470036788</v>
       </c>
       <c r="D6">
-        <v>1.037285758156379</v>
+        <v>1.026962701752808</v>
       </c>
       <c r="E6">
-        <v>1.028659138695606</v>
+        <v>1.014330422049574</v>
       </c>
       <c r="F6">
-        <v>1.046378390787668</v>
+        <v>1.029369503820498</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034937769866322</v>
+        <v>1.044372998475137</v>
       </c>
       <c r="J6">
-        <v>1.033226010776817</v>
+        <v>1.028388044164477</v>
       </c>
       <c r="K6">
-        <v>1.039706076379114</v>
+        <v>1.03649313650483</v>
       </c>
       <c r="L6">
-        <v>1.031100850957039</v>
+        <v>1.024001578854684</v>
       </c>
       <c r="M6">
-        <v>1.048776569761754</v>
+        <v>1.038873608040213</v>
       </c>
       <c r="N6">
-        <v>1.01510208089335</v>
+        <v>1.013411382770257</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028535119746992</v>
+        <v>1.008671588472079</v>
       </c>
       <c r="D7">
-        <v>1.037097003113095</v>
+        <v>1.0261454167119</v>
       </c>
       <c r="E7">
-        <v>1.028457821041305</v>
+        <v>1.013482282326973</v>
       </c>
       <c r="F7">
-        <v>1.046116135948648</v>
+        <v>1.02827485963344</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034891750321569</v>
+        <v>1.044106872996086</v>
       </c>
       <c r="J7">
-        <v>1.033100733225603</v>
+        <v>1.027850034969527</v>
       </c>
       <c r="K7">
-        <v>1.039577506497734</v>
+        <v>1.035935307847115</v>
       </c>
       <c r="L7">
-        <v>1.030960313283139</v>
+        <v>1.023417718653825</v>
       </c>
       <c r="M7">
-        <v>1.048574100623273</v>
+        <v>1.038040709602951</v>
       </c>
       <c r="N7">
-        <v>1.015060329128512</v>
+        <v>1.013231052267693</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027539582492267</v>
+        <v>1.004067108714769</v>
       </c>
       <c r="D8">
-        <v>1.03630935042813</v>
+        <v>1.022676471585964</v>
       </c>
       <c r="E8">
-        <v>1.027618398398981</v>
+        <v>1.009887650871361</v>
       </c>
       <c r="F8">
-        <v>1.045022411838935</v>
+        <v>1.023631563844579</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034697681740138</v>
+        <v>1.042958888155035</v>
       </c>
       <c r="J8">
-        <v>1.03257716753924</v>
+        <v>1.025557987029558</v>
       </c>
       <c r="K8">
-        <v>1.039040003860586</v>
+        <v>1.033557792624325</v>
       </c>
       <c r="L8">
-        <v>1.030373544889444</v>
+        <v>1.020935332855342</v>
       </c>
       <c r="M8">
-        <v>1.047728953041839</v>
+        <v>1.034500669220162</v>
       </c>
       <c r="N8">
-        <v>1.014885782822518</v>
+        <v>1.012462601811895</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025790963613829</v>
+        <v>0.995640426142165</v>
       </c>
       <c r="D9">
-        <v>1.034926481627421</v>
+        <v>1.016354059309015</v>
       </c>
       <c r="E9">
-        <v>1.026147095949343</v>
+        <v>1.003356039518739</v>
       </c>
       <c r="F9">
-        <v>1.043104541981318</v>
+        <v>1.015177987714525</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034349294966848</v>
+        <v>1.040797172146405</v>
       </c>
       <c r="J9">
-        <v>1.031654943898597</v>
+        <v>1.021348077067545</v>
       </c>
       <c r="K9">
-        <v>1.038092565341473</v>
+        <v>1.02918726086007</v>
       </c>
       <c r="L9">
-        <v>1.029342153761343</v>
+        <v>1.016394900981778</v>
       </c>
       <c r="M9">
-        <v>1.046244116683139</v>
+        <v>1.028029520478562</v>
       </c>
       <c r="N9">
-        <v>1.014578125242933</v>
+        <v>1.011050502352655</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024629128480081</v>
+        <v>0.9897940566086453</v>
       </c>
       <c r="D10">
-        <v>1.034008097817604</v>
+        <v>1.011987650290796</v>
       </c>
       <c r="E10">
-        <v>1.025171636296171</v>
+        <v>0.9988583378296167</v>
       </c>
       <c r="F10">
-        <v>1.041832421477441</v>
+        <v>1.009344142010134</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034112770061868</v>
+        <v>1.039258155643149</v>
       </c>
       <c r="J10">
-        <v>1.031040452970536</v>
+        <v>1.01841853493633</v>
       </c>
       <c r="K10">
-        <v>1.03746082835244</v>
+        <v>1.026143785453723</v>
       </c>
       <c r="L10">
-        <v>1.028656374763775</v>
+        <v>1.013248235979822</v>
       </c>
       <c r="M10">
-        <v>1.045257310110844</v>
+        <v>1.023546710016254</v>
       </c>
       <c r="N10">
-        <v>1.014372991508891</v>
+        <v>1.010067531706921</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024126993078187</v>
+        <v>0.9872040034885908</v>
       </c>
       <c r="D11">
-        <v>1.033611289080211</v>
+        <v>1.010058549950998</v>
       </c>
       <c r="E11">
-        <v>1.02475055963014</v>
+        <v>0.9968743083811644</v>
       </c>
       <c r="F11">
-        <v>1.041283139230409</v>
+        <v>1.006767353215005</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034009349564539</v>
+        <v>1.038567453851694</v>
       </c>
       <c r="J11">
-        <v>1.030774465358734</v>
+        <v>1.01711897285078</v>
       </c>
       <c r="K11">
-        <v>1.037187270632216</v>
+        <v>1.024793237416437</v>
       </c>
       <c r="L11">
-        <v>1.028359873932318</v>
+        <v>1.011855412384592</v>
       </c>
       <c r="M11">
-        <v>1.044830767174712</v>
+        <v>1.021562765738196</v>
       </c>
       <c r="N11">
-        <v>1.0142841655249</v>
+        <v>1.009631423443051</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023940621874928</v>
+        <v>0.9862327600922585</v>
       </c>
       <c r="D12">
-        <v>1.033464027488403</v>
+        <v>1.009336002170781</v>
       </c>
       <c r="E12">
-        <v>1.024594350957842</v>
+        <v>0.9961316448537748</v>
       </c>
       <c r="F12">
-        <v>1.04107934714268</v>
+        <v>1.005802271823377</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0339707845571</v>
+        <v>1.038307148575915</v>
       </c>
       <c r="J12">
-        <v>1.030675680745035</v>
+        <v>1.016631422919974</v>
       </c>
       <c r="K12">
-        <v>1.037085658837726</v>
+        <v>1.024286498530684</v>
       </c>
       <c r="L12">
-        <v>1.028249808837239</v>
+        <v>1.011333333604885</v>
       </c>
       <c r="M12">
-        <v>1.044672444862262</v>
+        <v>1.020819147369924</v>
       </c>
       <c r="N12">
-        <v>1.014251171826388</v>
+        <v>1.009467804390677</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023980592571516</v>
+        <v>0.986441517078181</v>
       </c>
       <c r="D13">
-        <v>1.033495609646669</v>
+        <v>1.009491266059283</v>
       </c>
       <c r="E13">
-        <v>1.024627849257493</v>
+        <v>0.9962912106550337</v>
       </c>
       <c r="F13">
-        <v>1.041123050530506</v>
+        <v>1.006009650191323</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033979063659102</v>
+        <v>1.03836315616286</v>
       </c>
       <c r="J13">
-        <v>1.030696869678202</v>
+        <v>1.016736225638605</v>
       </c>
       <c r="K13">
-        <v>1.037107454901984</v>
+        <v>1.024395428718147</v>
       </c>
       <c r="L13">
-        <v>1.028273415049086</v>
+        <v>1.011445537791542</v>
       </c>
       <c r="M13">
-        <v>1.044706400313258</v>
+        <v>1.02097896313917</v>
       </c>
       <c r="N13">
-        <v>1.014258249068656</v>
+        <v>1.009502975868397</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024111584622398</v>
+        <v>0.9871239098399366</v>
       </c>
       <c r="D14">
-        <v>1.033599113710366</v>
+        <v>1.00999894752735</v>
       </c>
       <c r="E14">
-        <v>1.024737643322493</v>
+        <v>0.9968130373288139</v>
       </c>
       <c r="F14">
-        <v>1.041266288889548</v>
+        <v>1.00668774338152</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034006164825173</v>
+        <v>1.038546013973651</v>
       </c>
       <c r="J14">
-        <v>1.030766299477346</v>
+        <v>1.017078771460186</v>
       </c>
       <c r="K14">
-        <v>1.037178871366908</v>
+        <v>1.024751454984336</v>
       </c>
       <c r="L14">
-        <v>1.028350774510812</v>
+        <v>1.011812354534406</v>
       </c>
       <c r="M14">
-        <v>1.044817677851484</v>
+        <v>1.02150143606548</v>
       </c>
       <c r="N14">
-        <v>1.014281438248053</v>
+        <v>1.009617932202204</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024192312321167</v>
+        <v>0.9875431258385405</v>
       </c>
       <c r="D15">
-        <v>1.033662903377845</v>
+        <v>1.010310945730242</v>
       </c>
       <c r="E15">
-        <v>1.024805317361682</v>
+        <v>0.9971337889002907</v>
       </c>
       <c r="F15">
-        <v>1.041354574083279</v>
+        <v>1.007104475698922</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034022842890302</v>
+        <v>1.038658179073824</v>
       </c>
       <c r="J15">
-        <v>1.030809079499978</v>
+        <v>1.017289179376642</v>
       </c>
       <c r="K15">
-        <v>1.037222873414361</v>
+        <v>1.024970135384718</v>
       </c>
       <c r="L15">
-        <v>1.028398447352421</v>
+        <v>1.012037731472999</v>
       </c>
       <c r="M15">
-        <v>1.044886254875215</v>
+        <v>1.021822454151418</v>
       </c>
       <c r="N15">
-        <v>1.014295725911407</v>
+        <v>1.009688543031641</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024662473671987</v>
+        <v>0.9899646839689663</v>
       </c>
       <c r="D16">
-        <v>1.034034450945071</v>
+        <v>1.012114850206876</v>
       </c>
       <c r="E16">
-        <v>1.025199609413967</v>
+        <v>0.9989892235805736</v>
       </c>
       <c r="F16">
-        <v>1.041868908473287</v>
+        <v>1.009514059042125</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03411961265849</v>
+        <v>1.039303475124888</v>
       </c>
       <c r="J16">
-        <v>1.031058107725541</v>
+        <v>1.018504114103244</v>
       </c>
       <c r="K16">
-        <v>1.037478983359486</v>
+        <v>1.026232713387315</v>
       </c>
       <c r="L16">
-        <v>1.028676062073017</v>
+        <v>1.013340020434404</v>
       </c>
       <c r="M16">
-        <v>1.045285634343871</v>
+        <v>1.023677453493791</v>
       </c>
       <c r="N16">
-        <v>1.014378886602083</v>
+        <v>1.010096249423648</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024957648372688</v>
+        <v>0.9914677241425125</v>
       </c>
       <c r="D17">
-        <v>1.034267743918025</v>
+        <v>1.013235953118126</v>
       </c>
       <c r="E17">
-        <v>1.025447288927368</v>
+        <v>1.000143163527825</v>
       </c>
       <c r="F17">
-        <v>1.042191954591433</v>
+        <v>1.011011726093239</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034180045605437</v>
+        <v>1.039701679969103</v>
       </c>
       <c r="J17">
-        <v>1.031214341875931</v>
+        <v>1.019257780311929</v>
       </c>
       <c r="K17">
-        <v>1.037639632317697</v>
+        <v>1.027015821039638</v>
       </c>
       <c r="L17">
-        <v>1.028850322925485</v>
+        <v>1.014148683034471</v>
       </c>
       <c r="M17">
-        <v>1.04553635690729</v>
+        <v>1.024829395886402</v>
       </c>
       <c r="N17">
-        <v>1.014431050988027</v>
+        <v>1.010349150219282</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025129910008451</v>
+        <v>0.9923388013877249</v>
       </c>
       <c r="D18">
-        <v>1.034403902365097</v>
+        <v>1.013886182442489</v>
       </c>
       <c r="E18">
-        <v>1.025591881856504</v>
+        <v>1.000812731621325</v>
       </c>
       <c r="F18">
-        <v>1.042380531743955</v>
+        <v>1.01188042181701</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034215198232139</v>
+        <v>1.039931608612255</v>
       </c>
       <c r="J18">
-        <v>1.031305479303431</v>
+        <v>1.01969439700266</v>
       </c>
       <c r="K18">
-        <v>1.037733334937141</v>
+        <v>1.027469451179551</v>
       </c>
       <c r="L18">
-        <v>1.028952009263911</v>
+        <v>1.014617450990189</v>
       </c>
       <c r="M18">
-        <v>1.045682671451073</v>
+        <v>1.025497187079677</v>
       </c>
       <c r="N18">
-        <v>1.01446147739296</v>
+        <v>1.010495656120328</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02518866218789</v>
+        <v>0.9926348742954472</v>
       </c>
       <c r="D19">
-        <v>1.034450342826606</v>
+        <v>1.014107274345711</v>
       </c>
       <c r="E19">
-        <v>1.02564120555974</v>
+        <v>1.001040449046295</v>
       </c>
       <c r="F19">
-        <v>1.042444857022069</v>
+        <v>1.01217580866463</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034227167912371</v>
+        <v>1.040009614730717</v>
       </c>
       <c r="J19">
-        <v>1.031336556243907</v>
+        <v>1.019842770869456</v>
       </c>
       <c r="K19">
-        <v>1.037765284861501</v>
+        <v>1.027623599251062</v>
       </c>
       <c r="L19">
-        <v>1.028986688913484</v>
+        <v>1.014776799978085</v>
       </c>
       <c r="M19">
-        <v>1.045732573136657</v>
+        <v>1.025724195758866</v>
       </c>
       <c r="N19">
-        <v>1.014471851962236</v>
+        <v>1.010545441695237</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024925969470487</v>
+        <v>0.9913070462651746</v>
       </c>
       <c r="D20">
-        <v>1.03424270523139</v>
+        <v>1.013116052739292</v>
       </c>
       <c r="E20">
-        <v>1.025420702247144</v>
+        <v>1.000019720870113</v>
       </c>
       <c r="F20">
-        <v>1.042157279287523</v>
+        <v>1.010851546464503</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03417357173837</v>
+        <v>1.039659198825205</v>
       </c>
       <c r="J20">
-        <v>1.03119757852148</v>
+        <v>1.019177228913664</v>
       </c>
       <c r="K20">
-        <v>1.037622396318574</v>
+        <v>1.026932127341295</v>
       </c>
       <c r="L20">
-        <v>1.028831621933725</v>
+        <v>1.01406222351908</v>
       </c>
       <c r="M20">
-        <v>1.045509449255365</v>
+        <v>1.024706231039299</v>
       </c>
       <c r="N20">
-        <v>1.014425454260158</v>
+        <v>1.010322120890831</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024073006730556</v>
+        <v>0.9869232188780905</v>
       </c>
       <c r="D21">
-        <v>1.033568630715399</v>
+        <v>1.009849615295297</v>
       </c>
       <c r="E21">
-        <v>1.024705306225918</v>
+        <v>0.9966595317638323</v>
       </c>
       <c r="F21">
-        <v>1.041224102235546</v>
+        <v>1.006488283965462</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033998188342713</v>
+        <v>1.038492271174555</v>
       </c>
       <c r="J21">
-        <v>1.030745853706259</v>
+        <v>1.016978035122421</v>
       </c>
       <c r="K21">
-        <v>1.037157840994076</v>
+        <v>1.024646755925247</v>
       </c>
       <c r="L21">
-        <v>1.028327992173998</v>
+        <v>1.011704467910912</v>
       </c>
       <c r="M21">
-        <v>1.044784906207556</v>
+        <v>1.021347767681604</v>
       </c>
       <c r="N21">
-        <v>1.014274609602533</v>
+        <v>1.009584125854236</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.02353755072862</v>
+        <v>0.9841135988566481</v>
       </c>
       <c r="D22">
-        <v>1.033145571312085</v>
+        <v>1.007761078520383</v>
       </c>
       <c r="E22">
-        <v>1.024256654651356</v>
+        <v>0.9945137115988218</v>
       </c>
       <c r="F22">
-        <v>1.040638742151998</v>
+        <v>1.003698770675543</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033887050189997</v>
+        <v>1.03773684130555</v>
       </c>
       <c r="J22">
-        <v>1.0304619240056</v>
+        <v>1.015567251992608</v>
       </c>
       <c r="K22">
-        <v>1.036865755733148</v>
+        <v>1.023180339025309</v>
       </c>
       <c r="L22">
-        <v>1.028011737309557</v>
+        <v>1.010194642070956</v>
       </c>
       <c r="M22">
-        <v>1.044330021956434</v>
+        <v>1.019197308587487</v>
       </c>
       <c r="N22">
-        <v>1.014179769132158</v>
+        <v>1.009110664556836</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023821326224974</v>
+        <v>0.9856082220632286</v>
       </c>
       <c r="D23">
-        <v>1.03336977058669</v>
+        <v>1.008871627024394</v>
       </c>
       <c r="E23">
-        <v>1.024494383994376</v>
+        <v>0.9956544700042355</v>
       </c>
       <c r="F23">
-        <v>1.040948922426933</v>
+        <v>1.00518203456323</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03394604861751</v>
+        <v>1.038139403216309</v>
       </c>
       <c r="J23">
-        <v>1.0306124317547</v>
+        <v>1.016317853839124</v>
       </c>
       <c r="K23">
-        <v>1.037020595259867</v>
+        <v>1.023960571644914</v>
       </c>
       <c r="L23">
-        <v>1.028179351847964</v>
+        <v>1.010997686776331</v>
       </c>
       <c r="M23">
-        <v>1.044571101054761</v>
+        <v>1.020341079441915</v>
       </c>
       <c r="N23">
-        <v>1.014230045550694</v>
+        <v>1.009362570731722</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024940283521178</v>
+        <v>0.9913796670235205</v>
       </c>
       <c r="D24">
-        <v>1.034254018881148</v>
+        <v>1.013170241950352</v>
       </c>
       <c r="E24">
-        <v>1.025432715235546</v>
+        <v>1.000075510111279</v>
       </c>
       <c r="F24">
-        <v>1.042172947102175</v>
+        <v>1.010923939764568</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034176497299705</v>
+        <v>1.039678401442208</v>
       </c>
       <c r="J24">
-        <v>1.031205153133115</v>
+        <v>1.019213635832914</v>
       </c>
       <c r="K24">
-        <v>1.037630184528564</v>
+        <v>1.026969954622674</v>
       </c>
       <c r="L24">
-        <v>1.02884007197448</v>
+        <v>1.014101299837201</v>
       </c>
       <c r="M24">
-        <v>1.045521607441861</v>
+        <v>1.024761896637979</v>
       </c>
       <c r="N24">
-        <v>1.014427983181253</v>
+        <v>1.010334337388493</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026242342663042</v>
+        <v>0.9978578287554242</v>
       </c>
       <c r="D25">
-        <v>1.035283372879811</v>
+        <v>1.018014452462645</v>
       </c>
       <c r="E25">
-        <v>1.026526518286922</v>
+        <v>1.005069069291081</v>
       </c>
       <c r="F25">
-        <v>1.043599228421567</v>
+        <v>1.017397172618136</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03444011668045</v>
+        <v>1.041372931253425</v>
       </c>
       <c r="J25">
-        <v>1.031893309325373</v>
+        <v>1.022457501199481</v>
       </c>
       <c r="K25">
-        <v>1.038337526661241</v>
+        <v>1.030339408605335</v>
       </c>
       <c r="L25">
-        <v>1.029608479556313</v>
+        <v>1.01758920085846</v>
       </c>
       <c r="M25">
-        <v>1.046627446998191</v>
+        <v>1.029731292014049</v>
       </c>
       <c r="N25">
-        <v>1.014657669223838</v>
+        <v>1.011422693920931</v>
       </c>
     </row>
   </sheetData>
